--- a/data/trans_orig/IP22D6_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D6_2023_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B68A550-3A60-47F2-BDF2-BF7F6346F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3132C180-D244-4E94-BCCD-F7BE8AF4A7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA1E8A2C-B3FD-4660-8E26-9B37B42CC9F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D127CD2-83F2-4BA0-8996-50DCADAC6278}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>SÍ</t>
@@ -104,7 +104,7 @@
     <t>69,43%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -125,7 +125,7 @@
     <t>92,94%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -146,7 +146,7 @@
     <t>95,66%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -167,7 +167,7 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>19,46%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -176,13 +176,13 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>13,85%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>80,54%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -191,13 +191,13 @@
     <t>97,26%</t>
   </si>
   <si>
-    <t>86,15%</t>
+    <t>87,02%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -206,13 +206,13 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -221,7 +221,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,98%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E69A5E-5C10-4A82-AD51-1C428693D099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B020D04-146F-4453-B728-F4931D6129D1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D6_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D6_2023_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3132C180-D244-4E94-BCCD-F7BE8AF4A7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC2322C-6989-4630-8B21-73614D056A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D127CD2-83F2-4BA0-8996-50DCADAC6278}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{7857CE8E-D52A-4C6C-8C63-5941309A1B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
   <si>
     <t>Menores que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,10 +65,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,151 +77,136 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
     <t>93,43%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -636,8 +621,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B020D04-146F-4453-B728-F4931D6129D1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05C7A22-DE40-4E5C-9F0A-E25DE4C459B2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -805,10 +790,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -820,10 +805,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -835,10 +820,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -856,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -871,10 +856,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -886,10 +871,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N6" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -960,10 +945,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -975,10 +960,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -990,10 +975,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1011,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1026,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1041,10 +1026,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1115,10 +1100,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1130,10 +1115,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1145,10 +1130,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1166,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1181,10 +1166,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1196,10 +1181,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N12" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1231,37 +1216,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1270,16 +1255,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1288,31 +1273,31 @@
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>11551</v>
+        <v>13605</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>22018</v>
+        <v>18704</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1321,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1336,10 +1321,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1351,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N15" s="7">
-        <v>22018</v>
+        <v>19223</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1368,55 +1353,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>504</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>519</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,46 +1410,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>12740</v>
+        <v>48166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>63</v>
+      </c>
+      <c r="I17" s="7">
+        <v>52753</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5172</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>17912</v>
+        <v>100919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1476,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1491,10 +1476,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7">
-        <v>5172</v>
+        <v>53272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1506,10 +1491,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N18" s="7">
-        <v>18416</v>
+        <v>101438</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1522,171 +1507,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>504</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>504</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>63</v>
-      </c>
-      <c r="D20" s="7">
-        <v>48913</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>63</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>126</v>
-      </c>
-      <c r="N20" s="7">
-        <v>93273</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>64</v>
-      </c>
-      <c r="D21" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>63</v>
-      </c>
-      <c r="I21" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>127</v>
-      </c>
-      <c r="N21" s="7">
-        <v>93777</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
